--- a/assets/files/Digital_Repository_Metadata_Template.xlsx
+++ b/assets/files/Digital_Repository_Metadata_Template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_86B34260B3DBB922407ED4448531AFAA2C73FED8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C816EA0F-56CA-4E9A-8C11-5EA95788ED6B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D9CEB-8D10-4406-B3FF-E4E9EAF8E4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +41,225 @@
     <t>Dates of Metadata Creation:</t>
   </si>
   <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Extent</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Usage Rights</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertisements </t>
+  </si>
+  <si>
+    <t>In Copyright - http://rightsstatements.org/vocab/InC/1.0/</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">architectural documents </t>
+  </si>
+  <si>
+    <t>In Copyright - Educational Use Permitted - http://rightsstatements.org/vocab/InC-EDU/1.0/</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">books </t>
+  </si>
+  <si>
+    <t>In Copyright - Non-Commercial Use Permitted - http://rightsstatements.org/vocab/InC-NC/1.0/</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broadsides (notices) </t>
+  </si>
+  <si>
+    <t>In Copyright - Rights-Holders(s) Unlocatable or Unidentifiable - http://rightsstatements.org/vocab/InC-RUU/1.0/</t>
+  </si>
+  <si>
+    <t>InteractiveResource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business records </t>
+  </si>
+  <si>
+    <t>No Copyright - Non-Commercial Use Only - http://rightsstatements.org/vocab/NoC-NC/1.0/</t>
+  </si>
+  <si>
+    <t>MovingImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cartographic materials </t>
+  </si>
+  <si>
+    <t>No Copyright - United States - http://rightsstatements.org/vocab/NoC-US/1.0/</t>
+  </si>
+  <si>
+    <t>PhysicalObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census records  </t>
+  </si>
+  <si>
+    <t>Copyright Not Evaluated - http://rightsstatements.org/vocab/CNE/1.0/</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comics (documents) </t>
+  </si>
+  <si>
+    <t>Copyright Undetermined - http://rightsstatements.org/vocab/UND/1.0/</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correspondence  </t>
+  </si>
+  <si>
+    <t>No Known Copyright - http://rightsstatements.org/page/NKC/1.0/?language=en</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costume (mode of fashion) </t>
+  </si>
+  <si>
+    <t>StillImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cultural artifacts </t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decorative arts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital moving image formats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital photographs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drawings (visual works) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">furniture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">genealogies (histories) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">government records </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic arts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motion pictures (visual works) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newspapers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oral histories (document genre) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">painting (visual works) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pamphlets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">performances (creative events) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodicals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">photographs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">postcards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">posters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints (visual works) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sermons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet music </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound recordings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">textiles (visual works) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">work-flow documents </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -50,7 +274,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> For information about metadata creation guidelines, consult Appendix 3 in the Born-Digital, Audiovisual, and Digitized Materials Manual for Archives and Manuscripts Collections: https://westvirginiauniversity.sharepoint.com/:w:/s/DigitalArchivesWork/ETljOmkUl2VGoHNqB1Ot9GgBhdrrmogHlk6Tzr8b5FhzwA?e=u6qhDL.</t>
+      <t xml:space="preserve"> For information about metadata creation guidelines, consult Appendix 3 in the Born-Digital, Audiovisual, and Digitized Materials Manual for Archives and Manuscripts Collections: https://elizajames.github.io/digital-preservation-documentation/docs/Appendices/appendix3/L.</t>
     </r>
     <r>
       <rPr>
@@ -61,231 +285,12 @@
       <t xml:space="preserve"> Fields, such as subject, that can contain multiple values should be separated with a semi-colon.</t>
     </r>
   </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Extent</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Usage Rights</t>
-  </si>
-  <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advertisements </t>
-  </si>
-  <si>
-    <t>In Copyright - http://rightsstatements.org/vocab/InC/1.0/</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">architectural documents </t>
-  </si>
-  <si>
-    <t>In Copyright - Educational Use Permitted - http://rightsstatements.org/vocab/InC-EDU/1.0/</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">books </t>
-  </si>
-  <si>
-    <t>In Copyright - Non-Commercial Use Permitted - http://rightsstatements.org/vocab/InC-NC/1.0/</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broadsides (notices) </t>
-  </si>
-  <si>
-    <t>In Copyright - Rights-Holders(s) Unlocatable or Unidentifiable - http://rightsstatements.org/vocab/InC-RUU/1.0/</t>
-  </si>
-  <si>
-    <t>InteractiveResource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business records </t>
-  </si>
-  <si>
-    <t>No Copyright - Non-Commercial Use Only - http://rightsstatements.org/vocab/NoC-NC/1.0/</t>
-  </si>
-  <si>
-    <t>MovingImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cartographic materials </t>
-  </si>
-  <si>
-    <t>No Copyright - United States - http://rightsstatements.org/vocab/NoC-US/1.0/</t>
-  </si>
-  <si>
-    <t>PhysicalObject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">census records  </t>
-  </si>
-  <si>
-    <t>Copyright Not Evaluated - http://rightsstatements.org/vocab/CNE/1.0/</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comics (documents) </t>
-  </si>
-  <si>
-    <t>Copyright Undetermined - http://rightsstatements.org/vocab/UND/1.0/</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correspondence  </t>
-  </si>
-  <si>
-    <t>No Known Copyright - http://rightsstatements.org/page/NKC/1.0/?language=en</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costume (mode of fashion) </t>
-  </si>
-  <si>
-    <t>StillImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cultural artifacts </t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decorative arts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital documents </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital images </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital moving image formats </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital photographs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">drawings (visual works) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">furniture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">genealogies (histories) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">government records </t>
-  </si>
-  <si>
-    <t xml:space="preserve">graphic arts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">interviews </t>
-  </si>
-  <si>
-    <t xml:space="preserve">motion pictures (visual works) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">newspapers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">oral histories (document genre) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">painting (visual works) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pamphlets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">performances (creative events) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">periodicals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">photographs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">postcards </t>
-  </si>
-  <si>
-    <t xml:space="preserve">posters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">prints (visual works) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sermons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheet music </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sound recordings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">textiles (visual works) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">work-flow documents </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,86 +693,86 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="34.140625" style="4" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="4"/>
+    <col min="1" max="1" width="27.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="4"/>
+    <col min="5" max="5" width="34.109375" style="4" customWidth="1"/>
+    <col min="6" max="8" width="9.109375" style="4"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="4"/>
+    <col min="10" max="15" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="66" customHeight="1">
+    <row r="3" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -810,275 +815,275 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.75">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.75">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="45.75">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75">
-      <c r="A8" s="2" t="s">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75">
-      <c r="A10" s="2" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="2" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="2" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="2" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1096,12 +1101,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C86CCEB7F3DB945AA2E897762518004" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e864a89c7bcdf6a924d422ae6761521">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a0e55d5d-7a74-4b33-a757-2f5b3f24fccd" xmlns:ns3="4c6aeffb-ce31-47bb-b81a-4876bc797bab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79f98f80c6590c5890ebfa8f86cd1898" ns2:_="" ns3:_="">
     <xsd:import namespace="a0e55d5d-7a74-4b33-a757-2f5b3f24fccd"/>
@@ -1280,14 +1279,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4DD9F7-17DC-42D1-A0FD-8BC66A2D96F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4DD9F7-17DC-42D1-A0FD-8BC66A2D96F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DAB08-26BF-44CD-8A6F-D6374D896F2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F772D4-C5CC-4715-9B6B-CDEB04880FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a0e55d5d-7a74-4b33-a757-2f5b3f24fccd"/>
+    <ds:schemaRef ds:uri="4c6aeffb-ce31-47bb-b81a-4876bc797bab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F772D4-C5CC-4715-9B6B-CDEB04880FFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90DAB08-26BF-44CD-8A6F-D6374D896F2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>